--- a/src/test/resources/testdata/LenskartTestData.xlsx
+++ b/src/test/resources/testdata/LenskartTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{380BE908-8D9E-4CF0-91EA-51E0209C9CC7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8D946984-B0D7-4419-8F47-33387D9339D3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16140" windowHeight="4128" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16140" windowHeight="4128" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="RepoIntegrationData" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0" refMode="R1C1"/>
-  <oleSize ref="D1:I11"/>
+  <oleSize ref="A1:F6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="241">
   <si>
     <t>username</t>
   </si>
@@ -748,6 +748,9 @@
   <si>
     <t>preprod-cluster</t>
   </si>
+  <si>
+    <t>ManualBuildandDeployHelmService</t>
+  </si>
 </sst>
 </file>
 
@@ -1399,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33546052-E966-4F68-882D-901C990EE3E6}">
   <dimension ref="A1:XFD18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34587,6 +34590,71 @@
         <v>32</v>
       </c>
     </row>
+    <row r="7" spans="1:16384" s="38" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>2</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE7" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF7" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG7" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="14" spans="1:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -34613,9 +34681,11 @@
     <hyperlink ref="D2" r:id="rId4" display="https://buildpiper-blue.lenskart.com/application/3/environment/135/dashboard" xr:uid="{E07FEE1E-CE62-4AB3-A59D-092D4B899074}"/>
     <hyperlink ref="G6" r:id="rId5" display="https://github.com/opstree/OT-Microservices.git" xr:uid="{61627CD2-DB2D-4466-865E-58E34B9F2087}"/>
     <hyperlink ref="D6" r:id="rId6" display="https://buildpiper-blue.lenskart.com/application/3/environment/135/dashboard" xr:uid="{B4499B54-066C-4645-A288-136343028912}"/>
+    <hyperlink ref="G7" r:id="rId7" display="https://github.com/opstree/OT-Microservices.git" xr:uid="{2D41A19C-222E-410B-B2AD-62FA8DF75DD2}"/>
+    <hyperlink ref="D7" r:id="rId8" display="https://buildpiper-blue.lenskart.com/application/3/environment/135/dashboard" xr:uid="{FA4A1040-447A-40B6-B55F-9470AA65244E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -34623,7 +34693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D07765-B4CA-46F3-9E73-C148767A4C81}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testdata/LenskartTestData.xlsx
+++ b/src/test/resources/testdata/LenskartTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ED516729-091D-4DB0-95C2-DF259B08431C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{49046781-7B74-45F7-8CBF-C8F2F25623BE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13296" windowHeight="3456" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15948" windowHeight="3456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="RepoIntegrationData" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0" refMode="R1C1"/>
-  <oleSize ref="A1:F10"/>
+  <oleSize ref="A1:F5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1408,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33546052-E966-4F68-882D-901C990EE3E6}">
   <dimension ref="A1:XFD18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35377,7 +35377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7161A4-3871-41B8-AFD3-D2E01A42417C}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testdata/LenskartTestData.xlsx
+++ b/src/test/resources/testdata/LenskartTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{49046781-7B74-45F7-8CBF-C8F2F25623BE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{97D07F8C-8588-432D-81F6-9CEB569F53AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15948" windowHeight="3456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15948" windowHeight="2928" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="RepoIntegrationData" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0" refMode="R1C1"/>
-  <oleSize ref="A1:F5"/>
+  <oleSize ref="A5:F8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="243">
   <si>
     <t>username</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>JobTemplateValue</t>
-  </si>
-  <si>
-    <t>perfeasy-app</t>
   </si>
   <si>
     <t>qa</t>
@@ -1274,10 +1271,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1289,7 +1286,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1297,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1306,10 +1303,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1317,19 +1314,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
         <v>95</v>
       </c>
-      <c r="D3" t="s">
-        <v>96</v>
-      </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1337,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1346,10 +1343,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1357,19 +1354,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
         <v>95</v>
       </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1378,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -1408,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33546052-E966-4F68-882D-901C990EE3E6}">
   <dimension ref="A1:XFD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,10 +1444,10 @@
   <sheetData>
     <row r="1" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>6</v>
@@ -1465,88 +1462,88 @@
         <v>9</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="Q1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH1" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:16384" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1554,52 +1551,52 @@
         <v>2</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="32" t="s">
         <v>237</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>238</v>
       </c>
       <c r="R2" s="36"/>
       <c r="S2" s="36"/>
@@ -1615,13 +1612,13 @@
       <c r="AC2" s="36"/>
       <c r="AD2" s="36"/>
       <c r="AE2" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF2" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG2" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AH2" s="36"/>
       <c r="AI2" s="36"/>
@@ -17980,64 +17977,64 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE3" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>219</v>
-      </c>
       <c r="AF3" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:16384" s="6" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -18045,64 +18042,64 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="AE4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG4" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="AH4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:16384" customFormat="1" x14ac:dyDescent="0.3">
@@ -18110,52 +18107,52 @@
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>228</v>
-      </c>
       <c r="H5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="K5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="L5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="N5" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="P5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>29</v>
-      </c>
       <c r="Q5" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R5" s="23"/>
       <c r="S5" s="23"/>
@@ -18171,13 +18168,13 @@
       <c r="AC5" s="23"/>
       <c r="AD5" s="23"/>
       <c r="AE5" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF5" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG5" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AH5" s="23"/>
       <c r="AI5" s="23"/>
@@ -34536,131 +34533,132 @@
         <v>2</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C6" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="E6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>236</v>
-      </c>
       <c r="H6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="J6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="K6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="24" t="s">
-        <v>21</v>
-      </c>
       <c r="L6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="N6" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="P6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>29</v>
-      </c>
       <c r="Q6" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AE6" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF6" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG6" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" s="34" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16384" s="34" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27">
         <v>2</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C7" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="E7" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="E7" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>236</v>
-      </c>
       <c r="H7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="J7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="K7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="32" t="s">
-        <v>21</v>
-      </c>
       <c r="L7" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="N7" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="P7" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="O7" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="P7" s="32" t="s">
-        <v>29</v>
-      </c>
       <c r="Q7" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE7" s="34" t="s">
-        <v>11</v>
+        <v>237</v>
+      </c>
+      <c r="AE7" s="37" t="s">
+        <v>136</v>
       </c>
       <c r="AF7" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG7" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
+    <row r="8" spans="1:16384" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -34674,7 +34672,7 @@
     </row>
     <row r="17" spans="1:16384" customFormat="1" x14ac:dyDescent="0.3">
       <c r="AC17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:16384" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -34699,7 +34697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D07765-B4CA-46F3-9E73-C148767A4C81}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -34722,87 +34720,87 @@
         <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -34813,14 +34811,14 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10" customFormat="1" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -34831,42 +34829,42 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:10" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -34883,28 +34881,28 @@
     </row>
     <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:10" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -34915,14 +34913,14 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:10" customFormat="1" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -34933,42 +34931,42 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:10" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -34985,28 +34983,28 @@
     </row>
     <row r="13" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:10" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -35017,14 +35015,14 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:10" customFormat="1" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -35035,71 +35033,71 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>224</v>
-      </c>
       <c r="H17" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17" s="26"/>
     </row>
@@ -35130,28 +35128,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -35212,159 +35210,159 @@
         <v>6</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>161</v>
-      </c>
       <c r="M1" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O1" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="P1" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="X1" s="15" t="s">
-        <v>185</v>
-      </c>
       <c r="Y1" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="Y2" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -35377,8 +35375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7161A4-3871-41B8-AFD3-D2E01A42417C}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35402,52 +35400,52 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="G1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="I1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -35460,43 +35458,43 @@
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>234</v>
+        <v>103</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="28">
         <v>9</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="I2" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="30" t="s">
+      <c r="K2" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="30" t="s">
         <v>225</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>226</v>
       </c>
       <c r="O2" s="30"/>
       <c r="P2" s="31"/>
@@ -35511,49 +35509,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="3">
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="O3" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -35561,46 +35559,46 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P4" s="8"/>
     </row>
@@ -35609,46 +35607,46 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P5" s="8"/>
     </row>
@@ -35675,49 +35673,49 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>104</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="3">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
@@ -35725,49 +35723,49 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>106</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="3">
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
@@ -35775,49 +35773,49 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="K9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -35825,49 +35823,49 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>108</v>
+        <v>121</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -35875,49 +35873,49 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>108</v>
+        <v>209</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="O11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
@@ -35925,49 +35923,49 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>108</v>
+        <v>212</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="J12" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="J12" s="24" t="s">
+      <c r="K12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>220</v>
-      </c>
       <c r="O12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -35975,49 +35973,49 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>215</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="3">
         <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="24" t="s">
+      <c r="K13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" s="24" t="s">
-        <v>220</v>
-      </c>
       <c r="O13" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -36025,49 +36023,49 @@
         <v>1</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>108</v>
-      </c>
       <c r="D14" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="24">
         <v>10</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="24" t="s">
+      <c r="K14" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="K14" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>220</v>
-      </c>
       <c r="O14" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -36075,46 +36073,46 @@
         <v>1</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>108</v>
+        <v>86</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="24">
         <v>10</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N15" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P15" s="8"/>
     </row>
@@ -36123,46 +36121,46 @@
         <v>1</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>109</v>
-      </c>
       <c r="I16" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P16" s="8"/>
     </row>
@@ -36171,46 +36169,46 @@
         <v>1</v>
       </c>
       <c r="B17" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="D17" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" s="38" t="s">
         <v>242</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="M17" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="N17" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="O17" s="38" t="s">
-        <v>243</v>
       </c>
       <c r="P17" s="8"/>
     </row>
@@ -36258,58 +36256,58 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="O1" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q1" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -36323,40 +36321,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
@@ -36364,22 +36362,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
@@ -36387,22 +36385,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -36410,22 +36408,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -36433,27 +36431,27 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="G9" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/LenskartTestData.xlsx
+++ b/src/test/resources/testdata/LenskartTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{97D07F8C-8588-432D-81F6-9CEB569F53AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E9D65E24-30CF-4DA6-A64C-793B9DBBCC82}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15948" windowHeight="2928" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15948" windowHeight="4212" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="RepoIntegrationData" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0" refMode="R1C1"/>
-  <oleSize ref="A5:F8"/>
+  <oleSize ref="A6:G17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="245">
   <si>
     <t>username</t>
   </si>
@@ -757,6 +757,12 @@
   <si>
     <t>test-juno-buildx</t>
   </si>
+  <si>
+    <t>ReplayPipeline</t>
+  </si>
+  <si>
+    <t>Preprod-pipeline</t>
+  </si>
 </sst>
 </file>
 
@@ -1405,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33546052-E966-4F68-882D-901C990EE3E6}">
   <dimension ref="A1:XFD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35375,15 +35381,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7161A4-3871-41B8-AFD3-D2E01A42417C}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="48.77734375" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
     <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.44140625" customWidth="1"/>
@@ -36212,7 +36218,31 @@
       </c>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="1:21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27">
+        <v>1</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="P18" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
